--- a/biology/Zoologie/Charax/Charax.xlsx
+++ b/biology/Zoologie/Charax/Charax.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Charax regroupe plusieurs espèces de poissons américains de la famille des Characidae.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le poisson Charax appartient à un genre de poissons d'eau douce qui fait partie de la famille des Characidae, groupe qui inclut également les tétras et d'autres poissons tropicaux populaires en aquariophilie. Les membres de ce genre se distinguent par leur corps allongé, souvent fusiforme, adapté à une nage rapide et agile. Leur taille peut varier considérablement selon l'espèce, allant de petites formes ne dépassant pas quelques centimètres à des espèces plus grandes pouvant atteindre ou dépasser 15 cm de longueur. Leur coloration est diverse, allant du relativement sobre au très coloré, avec parfois des reflets métalliques ou des motifs distinctifs tels que des bandes ou des taches, ce qui les rend attrayants pour l'aquariophilie. Ces poissons possèdent typiquement de grandes écailles et des nageoires bien développées, adaptées à leur style de vie dynamique. Bien que partageant certaines caractéristiques morphologiques et comportementales, les espèces du genre Charax présentent une variété d'adaptations à leurs habitats spécifiques, reflétant la diversité de leur écosystème d'origine dans les eaux douces tropicales d'Amérique du Sud.
 </t>
@@ -542,7 +556,9 @@
           <t>Espèces Proches</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Les espèces proches des poissons du genre Charax sont principalement d'autres membres de la vaste famille des Characidae, qui comprend des genres comme Astyanax, Brycon, et Hemigrammus, parmi d'autres. Ces genres partagent avec Charax une appartenance à l'ordre des Characiformes, caractérisé par une grande diversité de formes corporelles, de modes de vie et d'adaptations écologiques. Les Astyanax, par exemple, sont connus pour leur grande variabilité et leur adaptabilité à différents milieux, tandis que les Brycon sont souvent plus grands et adaptés à des environnements de cours d'eau rapides. Hemigrammus inclut de nombreuses espèces de petits tétras appréciés en aquariophilie pour leurs couleurs vives et leur comportement grégaire. Tous ces genres, y compris Charax, montrent une préférence pour les eaux douces et sont répandus à travers les systèmes fluviaux et les habitats aquatiques d'Amérique du Sud, où ils jouent un rôle important dans les écosystèmes locaux en tant que prédateurs, herbivores, ou omnivores, selon l'espèce. Cette proximité phylogénétique se traduit par des besoins similaires en termes d'habitat et de conditions de vie, bien que chaque genre et espèce puisse présenter des spécificités écologiques et comportementales distinctes.</t>
@@ -573,7 +589,9 @@
           <t>Répartition géographique et habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les poissons du genre Charax sont répartis principalement dans les systèmes fluviaux d'Amérique du Sud, y compris le bassin de l'Amazone, le bassin de l'Orénoque, et les systèmes fluviaux du Paraguay-Paraná. Ces poissons habitent une variété d'habitats aquatiques, depuis les petits cours d'eau jusqu'aux grands fleuves, souvent dans des zones où le courant est modéré à rapide. Ils peuvent être trouvés tant dans les eaux claires que dans les eaux noires ou turbides, adaptés à une grande diversité d'environnements aquatiques. Cette répartition géographique témoigne de leur capacité d'adaptation à différents types d'habitats, rendant les espèces du genre Charax assez versatiles en termes de préférences écologiques. Leur présence dans ces divers écosystèmes souligne l'importance de ces habitats pour la biodiversité aquatique en Amérique du Sud.
 </t>
@@ -604,7 +622,9 @@
           <t>Comportement</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les poissons du genre Charax se distinguent par leur nature relativement paisible et leur comportement prédateur, ce qui en fait des habitants intéressants pour les aquariums d'eau douce de taille moyenne à grande. Ces poissons sont principalement solitaires ou vivent en petits groupes et se montrent souvent plus actifs pendant le crépuscule ou la nuit, périodes durant lesquelles ils chassent. Dotés d'une grande agilité et d'une capacité à faire des embuscades, ils se nourrissent de petits poissons, d'insectes, et de crustacés dans leur milieu naturel. En captivité, ils nécessitent de l'espace pour nager et des cachettes pour refléter leur environnement naturel et soutenir leur comportement prédateur. Bien qu'ils puissent cohabiter avec d'autres espèces de taille similaire ou plus grande, il est crucial de les maintenir avec des compagnons d'aquarium compatibles pour éviter les prédations. Leur comportement nocturne et leur tendance à la prédation nécessitent une attention particulière à l'aménagement de l'aquarium et au choix des espèces compagnes, afin de créer un environnement équilibré et harmonieux pour tous les occupants.
 </t>
@@ -635,7 +655,9 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Les poissons du genre Charax sont principalement carnivores, avec une alimentation centrée sur une variété de proies vivantes dans leur habitat naturel. Ils consomment activement des petits poissons, des crustacés, des larves d'insectes, et d'autres petits invertébrés aquatiques, démontrant une prédilection pour la chasse et le comportement d'embuscade. En captivité, pour maintenir leur santé et leur vigueur, il est conseillé de leur fournir un régime alimentaire varié qui imite leur alimentation naturelle, incluant des aliments vivants ou congelés comme les vers de vase, les crevettes d'eau salée, les daphnies et les larves de moustiques. Les aliments préparés de haute qualité, conçus spécifiquement pour les poissons carnivores, peuvent également être intégrés pour compléter leur régime, assurant ainsi un apport équilibré en nutriments essentiels. Une telle diversité alimentaire est cruciale pour soutenir leur système immunitaire, favoriser une croissance saine et maintenir leur comportement de prédation actif, ce qui est essentiel pour leur bien-être global en captivité.
 </t>
@@ -666,7 +688,9 @@
           <t>Reproduction</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">La reproduction des poissons du genre Charax dans un environnement d'aquarium est considérée comme difficile et il existe peu de documentation détaillée sur leur reproduction en captivité. En milieu naturel, ces poissons sont susceptibles de pratiquer le frai en eau libre, où les œufs sont dispersés parmi la végétation aquatique et ne bénéficient pas de soins parentaux après la ponte. Les femelles pondent un grand nombre d'œufs qui, une fois fécondés par les mâles, éclosent après une période d'incubation relativement courte. Pour stimuler la reproduction en captivité, il est souvent nécessaire de recréer des conditions environnementales spécifiques, telles qu'une augmentation de la température de l'eau ou des changements dans la photopériode, qui imitent les signaux saisonniers de leur habitat naturel. Néanmoins, réussir la reproduction de ces poissons en aquarium demande une connaissance approfondie de leurs besoins spécifiques et un environnement bien contrôlé, comprenant une eau de qualité et une alimentation adéquate pour les reproducteurs. La gestion post-ponte des œufs et des alevins requiert également une attention particulière, avec souvent la nécessité d'isoler les œufs pour éviter la prédation et fournir aux larves un aliment approprié jusqu'à ce qu'elles soient capables de consommer des aliments plus standards.
 </t>
@@ -697,7 +721,9 @@
           <t>Maintenance en captivité</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">La maintenance en captivité des poissons du genre Charax demande une attention particulière à leur environnement pour assurer leur bien-être et leur santé. Ces poissons, souvent de taille moyenne à grande, nécessitent un aquarium spacieux avec suffisamment de place pour nager librement, typiquement un volume d'au moins 200 litres pour accommoder leur comportement actif et prévenir le stress. L'habitat doit être enrichi avec des zones denses de végétation et des cachettes, comme des racines ou des roches, pour simuler leur environnement naturel et offrir des refuges. La qualité de l'eau est cruciale, nécessitant des paramètres stables, notamment une température comprise entre 22 et 28°C, un pH légèrement acide à neutre, et une eau douce à moyennement dure. Des changements d'eau réguliers et une filtration efficace sont indispensables pour maintenir la propreté de l'eau et réduire les niveaux de nitrates et d'ammoniaque. Une alimentation variée, imitant leur régime carnivore naturel avec des aliments vivants, congelés, et des préparations de haute qualité, contribue à leur santé et à leur vitalité. Enfin, une attention particulière doit être portée à la dynamique sociale du groupe, en évitant la surpopulation et en maintenant un équilibre entre les sexes pour prévenir l'agressivité et le stress. Une telle approche holistique de leur maintenance crée un environnement propice à leur épanouissement en captivité.
 </t>
@@ -728,7 +754,9 @@
           <t>Elevage</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'élevage des poissons du genre Charax en captivité représente un défi stimulant pour les aquariophiles avancés, nécessitant une compréhension approfondie de leurs besoins spécifiques et un environnement soigneusement contrôlé. La reproduction commence par la sélection de poissons sains et la formation de couples ou de groupes reproducteurs, souvent stimulée par des changements dans l'environnement tels que l'augmentation de la température de l'eau ou l'imitation des saisons de pluies via des changements de l'eau fréquents et abondants. Une alimentation enrichie est cruciale pour préparer les poissons à la ponte, en favorisant leur condition physique avec des aliments riches en protéines. Les œufs sont généralement pondus sur des substrats définis ou en pleine eau, selon l'espèce, nécessitant parfois des installations spécifiques pour protéger les œufs et les larves des adultes. Après l'éclosion, les alevins nécessitent des soins attentifs, notamment une alimentation adaptée à leur taille, comme des infusoires ou des nauplies d'artémia, et un suivi rigoureux de la qualité de l'eau pour éviter les maladies. Bien que l'élevage de Charax puisse être complexe, il offre une expérience enrichissante, contribuant à la conservation des espèces et à la diversité génétique des populations en captivité.
